--- a/Sprzedaż modeli PLUS/Sprzedaż modeli PLUS.xlsx
+++ b/Sprzedaż modeli PLUS/Sprzedaż modeli PLUS.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nowystylglobal-my.sharepoint.com/personal/lukasz_wojcik_nowystyl_com/Documents/Dokumenty/GitHub/NS-PBI/Sprzedaż modeli PLUS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{8D6D89DA-533B-4960-A900-2F89A6C3A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8106419F-BA53-4685-B60D-0D3B0F6E72C6}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8D6D89DA-533B-4960-A900-2F89A6C3A4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB1E80D-C4BF-4A5A-A8BC-1D0F289B53C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B8B23EA3-07A9-44BA-AA7F-DC8458D5B041}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B8B23EA3-07A9-44BA-AA7F-DC8458D5B041}"/>
   </bookViews>
   <sheets>
     <sheet name="modele PLUS" sheetId="1" r:id="rId1"/>
     <sheet name="Podsumowanie" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'modele PLUS'!$A$1:$F$37</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -629,7 +645,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -642,6 +658,8 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1643,23 +1661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFB7BA9-AEB3-479E-A88E-4B6C82E3D9AD}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1698,8 +1716,9 @@
       <c r="F2" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1718,8 +1737,9 @@
       <c r="F3" s="2">
         <v>4.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1759,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1779,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1889,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +1929,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1949,7 @@
         <v>3.8199999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2346,6 +2366,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F37" xr:uid="{CEFB7BA9-AEB3-479E-A88E-4B6C82E3D9AD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2355,7 +2376,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
